--- a/Diagnosis/Old/icd10-diagnosis-codes.xlsx
+++ b/Diagnosis/Old/icd10-diagnosis-codes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arin/Dropbox (Partners HealthCare)/Research/Codes/Diagnosis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arin/Dropbox (Partners HealthCare)/Research/Codes/Diagnosis/Old/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="460" windowWidth="28020" windowHeight="17540" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="cea" sheetId="1" r:id="rId1"/>
@@ -345,16 +345,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -412,23 +404,22 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -919,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1144,138 +1135,138 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1431,42 +1422,42 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1543,18 +1534,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1562,18 +1554,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
